--- a/nodiplpresence.xlsx
+++ b/nodiplpresence.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="8">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="35">
   <si>
     <t>Table 1</t>
   </si>
@@ -29,13 +29,142 @@
     <t>Sao Tome and Principe</t>
   </si>
   <si>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color indexed="15"/>
+        <rFont val="Helvetica"/>
+      </rPr>
+      <t xml:space="preserve">6.613081
+</t>
+    </r>
+  </si>
+  <si>
     <t>Seychelles</t>
   </si>
   <si>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color indexed="15"/>
+        <rFont val="Helvetica"/>
+      </rPr>
+      <t xml:space="preserve">-4.679574
+</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color indexed="15"/>
+        <rFont val="Helvetica"/>
+      </rPr>
+      <t xml:space="preserve">55.491977
+</t>
+    </r>
+  </si>
+  <si>
     <t>Tuvalu</t>
   </si>
   <si>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color indexed="15"/>
+        <rFont val="Helvetica"/>
+      </rPr>
+      <t xml:space="preserve">-7.109535
+</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color indexed="15"/>
+        <rFont val="Helvetica"/>
+      </rPr>
+      <t xml:space="preserve">177.64933
+</t>
+    </r>
+  </si>
+  <si>
     <t>Antigua and Barbuda</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color indexed="15"/>
+        <rFont val="Helvetica"/>
+      </rPr>
+      <t xml:space="preserve">-61.796428
+</t>
+    </r>
+  </si>
+  <si>
+    <t>Andorra</t>
+  </si>
+  <si>
+    <t>Bhutan</t>
+  </si>
+  <si>
+    <t>Comoros</t>
+  </si>
+  <si>
+    <t>North Korea</t>
+  </si>
+  <si>
+    <t>Dominica</t>
+  </si>
+  <si>
+    <t>Guinea-Bissau</t>
+  </si>
+  <si>
+    <t>Iran</t>
+  </si>
+  <si>
+    <t>Kiribati</t>
+  </si>
+  <si>
+    <t>Liechtenstein</t>
+  </si>
+  <si>
+    <t>Maldives</t>
+  </si>
+  <si>
+    <t>Monaco</t>
+  </si>
+  <si>
+    <t>Nauru</t>
+  </si>
+  <si>
+    <t>Palestine</t>
+  </si>
+  <si>
+    <t>Saint Kitts and Nevis</t>
+  </si>
+  <si>
+    <t>Saint Lucia</t>
+  </si>
+  <si>
+    <t>Saint Vincent and the Grenadines</t>
+  </si>
+  <si>
+    <t>San Marino</t>
+  </si>
+  <si>
+    <t>Solomon Islands</t>
+  </si>
+  <si>
+    <t>Tonga</t>
+  </si>
+  <si>
+    <t>Vanuatu</t>
+  </si>
+  <si>
+    <t>Vatican City</t>
   </si>
 </sst>
 </file>
@@ -45,7 +174,7 @@
   <numFmts count="1">
     <numFmt numFmtId="0" formatCode="General"/>
   </numFmts>
-  <fonts count="4">
+  <fonts count="5">
     <font>
       <sz val="10"/>
       <color indexed="8"/>
@@ -66,6 +195,11 @@
       <sz val="10"/>
       <color indexed="8"/>
       <name val="Helvetica Neue"/>
+    </font>
+    <font>
+      <sz val="14"/>
+      <color indexed="15"/>
+      <name val="Helvetica"/>
     </font>
   </fonts>
   <fills count="5">
@@ -250,7 +384,7 @@
       <alignment vertical="top" wrapText="1"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="17">
+  <cellXfs count="20">
     <xf numFmtId="0" fontId="0" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="0">
       <alignment vertical="top" wrapText="1"/>
     </xf>
@@ -278,7 +412,7 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="6" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="7" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="49" fontId="0" fillId="2" borderId="7" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="7" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
@@ -287,19 +421,28 @@
     <xf numFmtId="49" fontId="3" fillId="4" borderId="8" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="49" fontId="0" fillId="2" borderId="9" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="2" borderId="10" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="10" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="9" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="10" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="10" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="10" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="8" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="9" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="9" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="10" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="9" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -325,6 +468,7 @@
       <rgbColor rgb="ffbdc0bf"/>
       <rgbColor rgb="ff3f3f3f"/>
       <rgbColor rgb="ffdbdbdb"/>
+      <rgbColor rgb="ff202124"/>
     </indexedColors>
   </colors>
 </styleSheet>
@@ -1389,7 +1533,7 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:G23"/>
+  <dimension ref="A1:G27"/>
   <sheetViews>
     <sheetView workbookViewId="0" showGridLines="0" defaultGridColor="1"/>
   </sheetViews>
@@ -1436,10 +1580,10 @@
         <v>4</v>
       </c>
       <c r="B3" s="8">
-        <v>0.1</v>
-      </c>
-      <c r="C3" s="9">
-        <v>6.39</v>
+        <v>0.18636</v>
+      </c>
+      <c r="C3" t="s" s="9">
+        <v>5</v>
       </c>
       <c r="D3" s="10"/>
       <c r="E3" s="10"/>
@@ -1448,13 +1592,13 @@
     </row>
     <row r="4" ht="20.05" customHeight="1">
       <c r="A4" t="s" s="11">
-        <v>5</v>
-      </c>
-      <c r="B4" s="12">
-        <v>-4.37</v>
-      </c>
-      <c r="C4" s="13">
-        <v>55.27</v>
+        <v>6</v>
+      </c>
+      <c r="B4" t="s" s="12">
+        <v>7</v>
+      </c>
+      <c r="C4" t="s" s="13">
+        <v>8</v>
       </c>
       <c r="D4" s="14"/>
       <c r="E4" s="14"/>
@@ -1463,13 +1607,13 @@
     </row>
     <row r="5" ht="20.05" customHeight="1">
       <c r="A5" t="s" s="11">
-        <v>6</v>
-      </c>
-      <c r="B5" s="12">
-        <v>-8.31</v>
-      </c>
-      <c r="C5" s="13">
-        <v>179.13</v>
+        <v>9</v>
+      </c>
+      <c r="B5" t="s" s="12">
+        <v>10</v>
+      </c>
+      <c r="C5" t="s" s="13">
+        <v>11</v>
       </c>
       <c r="D5" s="14"/>
       <c r="E5" s="14"/>
@@ -1478,13 +1622,13 @@
     </row>
     <row r="6" ht="32.05" customHeight="1">
       <c r="A6" t="s" s="11">
-        <v>7</v>
-      </c>
-      <c r="B6" s="12">
-        <v>17.7</v>
-      </c>
-      <c r="C6" s="13">
-        <v>-61.51</v>
+        <v>12</v>
+      </c>
+      <c r="B6" s="15">
+        <v>17.060816</v>
+      </c>
+      <c r="C6" t="s" s="13">
+        <v>13</v>
       </c>
       <c r="D6" s="14"/>
       <c r="E6" s="14"/>
@@ -1492,157 +1636,319 @@
       <c r="G6" s="14"/>
     </row>
     <row r="7" ht="20.05" customHeight="1">
-      <c r="A7" s="15"/>
-      <c r="B7" s="16"/>
-      <c r="C7" s="14"/>
+      <c r="A7" t="s" s="11">
+        <v>14</v>
+      </c>
+      <c r="B7" s="15">
+        <v>42.546245</v>
+      </c>
+      <c r="C7" s="16">
+        <v>1.601554</v>
+      </c>
       <c r="D7" s="14"/>
       <c r="E7" s="14"/>
       <c r="F7" s="14"/>
       <c r="G7" s="14"/>
     </row>
     <row r="8" ht="20.05" customHeight="1">
-      <c r="A8" s="15"/>
-      <c r="B8" s="16"/>
-      <c r="C8" s="14"/>
+      <c r="A8" t="s" s="11">
+        <v>15</v>
+      </c>
+      <c r="B8" s="17">
+        <v>27.514162</v>
+      </c>
+      <c r="C8" s="16">
+        <v>90.433601</v>
+      </c>
       <c r="D8" s="14"/>
       <c r="E8" s="14"/>
       <c r="F8" s="14"/>
       <c r="G8" s="14"/>
     </row>
     <row r="9" ht="20.05" customHeight="1">
-      <c r="A9" s="15"/>
-      <c r="B9" s="16"/>
-      <c r="C9" s="14"/>
+      <c r="A9" t="s" s="11">
+        <v>16</v>
+      </c>
+      <c r="B9" s="17">
+        <v>-11.875001</v>
+      </c>
+      <c r="C9" s="18">
+        <v>43.872219</v>
+      </c>
       <c r="D9" s="14"/>
       <c r="E9" s="14"/>
       <c r="F9" s="14"/>
       <c r="G9" s="14"/>
     </row>
     <row r="10" ht="20.05" customHeight="1">
-      <c r="A10" s="15"/>
-      <c r="B10" s="16"/>
-      <c r="C10" s="14"/>
+      <c r="A10" t="s" s="11">
+        <v>17</v>
+      </c>
+      <c r="B10" s="19">
+        <v>40.339852</v>
+      </c>
+      <c r="C10" s="16">
+        <v>127.510093</v>
+      </c>
       <c r="D10" s="14"/>
       <c r="E10" s="14"/>
       <c r="F10" s="14"/>
       <c r="G10" s="14"/>
     </row>
     <row r="11" ht="20.05" customHeight="1">
-      <c r="A11" s="15"/>
-      <c r="B11" s="16"/>
-      <c r="C11" s="14"/>
+      <c r="A11" t="s" s="11">
+        <v>18</v>
+      </c>
+      <c r="B11" s="19">
+        <v>15.414999</v>
+      </c>
+      <c r="C11" s="16">
+        <v>-61.370976</v>
+      </c>
       <c r="D11" s="14"/>
       <c r="E11" s="14"/>
       <c r="F11" s="14"/>
       <c r="G11" s="14"/>
     </row>
     <row r="12" ht="20.05" customHeight="1">
-      <c r="A12" s="15"/>
-      <c r="B12" s="16"/>
-      <c r="C12" s="14"/>
+      <c r="A12" t="s" s="11">
+        <v>19</v>
+      </c>
+      <c r="B12" s="19">
+        <v>11.803749</v>
+      </c>
+      <c r="C12" s="18">
+        <v>-15.180413</v>
+      </c>
       <c r="D12" s="14"/>
       <c r="E12" s="14"/>
       <c r="F12" s="14"/>
       <c r="G12" s="14"/>
     </row>
     <row r="13" ht="20.05" customHeight="1">
-      <c r="A13" s="15"/>
-      <c r="B13" s="16"/>
-      <c r="C13" s="14"/>
+      <c r="A13" t="s" s="11">
+        <v>20</v>
+      </c>
+      <c r="B13" s="17">
+        <v>32.427908</v>
+      </c>
+      <c r="C13" s="16">
+        <v>53.688046</v>
+      </c>
       <c r="D13" s="14"/>
       <c r="E13" s="14"/>
       <c r="F13" s="14"/>
       <c r="G13" s="14"/>
     </row>
     <row r="14" ht="20.05" customHeight="1">
-      <c r="A14" s="15"/>
-      <c r="B14" s="16"/>
-      <c r="C14" s="14"/>
+      <c r="A14" t="s" s="11">
+        <v>21</v>
+      </c>
+      <c r="B14" s="17">
+        <v>-3.370417</v>
+      </c>
+      <c r="C14" s="18">
+        <v>-168.734039</v>
+      </c>
       <c r="D14" s="14"/>
       <c r="E14" s="14"/>
       <c r="F14" s="14"/>
       <c r="G14" s="14"/>
     </row>
     <row r="15" ht="20.05" customHeight="1">
-      <c r="A15" s="15"/>
-      <c r="B15" s="16"/>
-      <c r="C15" s="14"/>
+      <c r="A15" t="s" s="11">
+        <v>22</v>
+      </c>
+      <c r="B15" s="19">
+        <v>47.166</v>
+      </c>
+      <c r="C15" s="16">
+        <v>9.555372999999999</v>
+      </c>
       <c r="D15" s="14"/>
       <c r="E15" s="14"/>
       <c r="F15" s="14"/>
       <c r="G15" s="14"/>
     </row>
     <row r="16" ht="20.05" customHeight="1">
-      <c r="A16" s="15"/>
-      <c r="B16" s="16"/>
-      <c r="C16" s="14"/>
+      <c r="A16" t="s" s="11">
+        <v>23</v>
+      </c>
+      <c r="B16" s="19">
+        <v>3.202778</v>
+      </c>
+      <c r="C16" s="16">
+        <v>73.22068</v>
+      </c>
       <c r="D16" s="14"/>
       <c r="E16" s="14"/>
       <c r="F16" s="14"/>
       <c r="G16" s="14"/>
     </row>
     <row r="17" ht="20.05" customHeight="1">
-      <c r="A17" s="15"/>
-      <c r="B17" s="16"/>
-      <c r="C17" s="14"/>
+      <c r="A17" t="s" s="11">
+        <v>24</v>
+      </c>
+      <c r="B17" s="19">
+        <v>43.750298</v>
+      </c>
+      <c r="C17" s="16">
+        <v>7.412841</v>
+      </c>
       <c r="D17" s="14"/>
       <c r="E17" s="14"/>
       <c r="F17" s="14"/>
       <c r="G17" s="14"/>
     </row>
     <row r="18" ht="20.05" customHeight="1">
-      <c r="A18" s="15"/>
-      <c r="B18" s="16"/>
-      <c r="C18" s="14"/>
+      <c r="A18" t="s" s="11">
+        <v>25</v>
+      </c>
+      <c r="B18" s="17">
+        <v>-0.522778</v>
+      </c>
+      <c r="C18" s="16">
+        <v>166.931503</v>
+      </c>
       <c r="D18" s="14"/>
       <c r="E18" s="14"/>
       <c r="F18" s="14"/>
       <c r="G18" s="14"/>
     </row>
     <row r="19" ht="20.05" customHeight="1">
-      <c r="A19" s="15"/>
-      <c r="B19" s="16"/>
-      <c r="C19" s="14"/>
+      <c r="A19" t="s" s="11">
+        <v>26</v>
+      </c>
+      <c r="B19" s="17">
+        <v>31.952162</v>
+      </c>
+      <c r="C19" s="16">
+        <v>35.233154</v>
+      </c>
       <c r="D19" s="14"/>
       <c r="E19" s="14"/>
       <c r="F19" s="14"/>
       <c r="G19" s="14"/>
     </row>
     <row r="20" ht="20.05" customHeight="1">
-      <c r="A20" s="15"/>
-      <c r="B20" s="16"/>
-      <c r="C20" s="14"/>
+      <c r="A20" t="s" s="11">
+        <v>27</v>
+      </c>
+      <c r="B20" s="17">
+        <v>17.357822</v>
+      </c>
+      <c r="C20" s="18">
+        <v>-62.782998</v>
+      </c>
       <c r="D20" s="14"/>
       <c r="E20" s="14"/>
       <c r="F20" s="14"/>
       <c r="G20" s="14"/>
     </row>
     <row r="21" ht="20.05" customHeight="1">
-      <c r="A21" s="15"/>
-      <c r="B21" s="16"/>
-      <c r="C21" s="14"/>
+      <c r="A21" t="s" s="11">
+        <v>28</v>
+      </c>
+      <c r="B21" s="19">
+        <v>13.909444</v>
+      </c>
+      <c r="C21" s="18">
+        <v>-60.978893</v>
+      </c>
       <c r="D21" s="14"/>
       <c r="E21" s="14"/>
       <c r="F21" s="14"/>
       <c r="G21" s="14"/>
     </row>
     <row r="22" ht="20.05" customHeight="1">
-      <c r="A22" s="15"/>
-      <c r="B22" s="16"/>
-      <c r="C22" s="14"/>
+      <c r="A22" t="s" s="11">
+        <v>29</v>
+      </c>
+      <c r="B22" s="19">
+        <v>12.984305</v>
+      </c>
+      <c r="C22" s="18">
+        <v>-61.287228</v>
+      </c>
       <c r="D22" s="14"/>
       <c r="E22" s="14"/>
       <c r="F22" s="14"/>
       <c r="G22" s="14"/>
     </row>
     <row r="23" ht="20.05" customHeight="1">
-      <c r="A23" s="15"/>
-      <c r="B23" s="16"/>
-      <c r="C23" s="14"/>
+      <c r="A23" t="s" s="11">
+        <v>30</v>
+      </c>
+      <c r="B23" s="19">
+        <v>43.94236</v>
+      </c>
+      <c r="C23" s="16">
+        <v>12.457777</v>
+      </c>
       <c r="D23" s="14"/>
       <c r="E23" s="14"/>
       <c r="F23" s="14"/>
       <c r="G23" s="14"/>
+    </row>
+    <row r="24" ht="20.05" customHeight="1">
+      <c r="A24" t="s" s="11">
+        <v>31</v>
+      </c>
+      <c r="B24" s="17">
+        <v>-9.645709999999999</v>
+      </c>
+      <c r="C24" s="16">
+        <v>160.156194</v>
+      </c>
+      <c r="D24" s="14"/>
+      <c r="E24" s="14"/>
+      <c r="F24" s="14"/>
+      <c r="G24" s="14"/>
+    </row>
+    <row r="25" ht="20.05" customHeight="1">
+      <c r="A25" t="s" s="11">
+        <v>32</v>
+      </c>
+      <c r="B25" s="17">
+        <v>-21.178986</v>
+      </c>
+      <c r="C25" s="18">
+        <v>-175.198242</v>
+      </c>
+      <c r="D25" s="14"/>
+      <c r="E25" s="14"/>
+      <c r="F25" s="14"/>
+      <c r="G25" s="14"/>
+    </row>
+    <row r="26" ht="20.05" customHeight="1">
+      <c r="A26" t="s" s="11">
+        <v>33</v>
+      </c>
+      <c r="B26" s="17">
+        <v>-15.376706</v>
+      </c>
+      <c r="C26" s="18">
+        <v>166.959158</v>
+      </c>
+      <c r="D26" s="14"/>
+      <c r="E26" s="14"/>
+      <c r="F26" s="14"/>
+      <c r="G26" s="14"/>
+    </row>
+    <row r="27" ht="20.05" customHeight="1">
+      <c r="A27" t="s" s="11">
+        <v>34</v>
+      </c>
+      <c r="B27" s="19">
+        <v>41.902916</v>
+      </c>
+      <c r="C27" s="18">
+        <v>12.453389</v>
+      </c>
+      <c r="D27" s="14"/>
+      <c r="E27" s="14"/>
+      <c r="F27" s="14"/>
+      <c r="G27" s="14"/>
     </row>
   </sheetData>
   <mergeCells count="1">
